--- a/biology/Zoologie/Hespérie_de_la_houque/Hespérie_de_la_houque.xlsx
+++ b/biology/Zoologie/Hespérie_de_la_houque/Hespérie_de_la_houque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_houque</t>
+          <t>Hespérie_de_la_houque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thymelicus sylvestris
 L’Hespérie de la houque, Bande noire ou Thaumas (Thymelicus sylvestris) est une espèce de lépidoptères (papillons) de la famille des Hesperiidae, de la sous-famille des Hesperiinae et du genre Thymelicus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_houque</t>
+          <t>Hespérie_de_la_houque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Thymelicus  sylvestris a été décrit par Nicolaus Poda von Neuhaus en 1761 sous le nom de Papilio sylvestris[1].
-Synonymes : Papilio flavus Brünnich, 1763; Papilio thaumas Hufnagel, 1766; Thymelicus flavus Brunnich, 1763 [2].
-Noms vernaculaires
-L'Hespérie de la houque[3] ou Bande noire ou Thaumas se nomme en anglais Small Skipper, en allemand Braunkolbiger Braun-Dickkopffalter, en espagnol Dorada linea larga et en Turc Sarı antenli zıpzıp[4],[1],[5].
-Sous-espèces
-Thymelicus sylvestris iberica (Tutt, 1905) présent en Algérie et au Maroc.
-Thymelicus sylvestris syriaca présent en Grèce[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thymelicus  sylvestris a été décrit par Nicolaus Poda von Neuhaus en 1761 sous le nom de Papilio sylvestris.
+Synonymes : Papilio flavus Brünnich, 1763; Papilio thaumas Hufnagel, 1766; Thymelicus flavus Brunnich, 1763 .
+</t>
         </is>
       </c>
     </row>
@@ -530,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_houque</t>
+          <t>Hespérie_de_la_houque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +555,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de la houque ou Bande noire ou Thaumas se nomme en anglais Small Skipper, en allemand Braunkolbiger Braun-Dickkopffalter, en espagnol Dorada linea larga et en Turc Sarı antenli zıpzıp.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_houque</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_houque</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Thymelicus sylvestris iberica (Tutt, 1905) présent en Algérie et au Maroc.
+Thymelicus sylvestris syriaca présent en Grèce.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_houque</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_houque</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme tous les Hesperiidae, l'Hespérie de la Houque porte ses ailes antérieures partiellement redressées quand il est posé. C'est un petit papillon d'une envergure de 26 mm à 30 mm aux ailes orange vif bordées de marron. Le mâle présente au recto de l'aile antérieure une grande ligne androconiale noire. Les massues antennaires sont orange contrairement à celles de l'Hespérie du dactyle qui sont noires[6],[7],[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tous les Hesperiidae, l'Hespérie de la Houque porte ses ailes antérieures partiellement redressées quand il est posé. C'est un petit papillon d'une envergure de 26 mm à 30 mm aux ailes orange vif bordées de marron. Le mâle présente au recto de l'aile antérieure une grande ligne androconiale noire. Les massues antennaires sont orange contrairement à celles de l'Hespérie du dactyle qui sont noires.
 			Thymelicus sylvestris ♂  (dorsal) MHNT.
 			Thymelicus sylvestris  ♂  (ventral) △.
 			Différencier T. lineola et T. sylvestris : comparer les massues antennaires.
@@ -562,73 +648,185 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hesp%C3%A9rie_de_la_houque</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_houque</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_houque</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_houque</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Hespérie de la houque vole en une seule génération de début mai à août[6].
-Elle hiverne au stade de chenille formée dans l'œuf[6].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont de nombreuses poacées (graminées), dont Brachypodium sylvaticum, Deschampsia, Holcus, (Holcus lanatus et Holcus mollis), Oryzopsis, Phleum (Phleum arvense et  Phleum pratense)[1],[6].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de la houque vole en une seule génération de début mai à août.
+Elle hiverne au stade de chenille formée dans l'œuf.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hesp%C3%A9rie_de_la_houque</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_houque</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_houque</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_houque</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont de nombreuses poacées (graminées), dont Brachypodium sylvaticum, Deschampsia, Holcus, (Holcus lanatus et Holcus mollis), Oryzopsis, Phleum (Phleum arvense et  Phleum pratense),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_houque</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_houque</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hespérie  de la houque  réside en Afrique du Nord, dans toute l'Europe sauf l'Irlande, le nord de l'Angleterre et de la Scandinavie, et tout le Moyen-Orient[1],[6].
-L'Hespérie de la houque est présente dans toute la France métropolitaine sauf en Corse[9].
-Biotope
-L'Hespérie de la houque réside dans les friches, les prairies fleuries, au bord des routes[6].
-Protection
-Pas de statut de protection particulier[10].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie  de la houque  réside en Afrique du Nord, dans toute l'Europe sauf l'Irlande, le nord de l'Angleterre et de la Scandinavie, et tout le Moyen-Orient,.
+L'Hespérie de la houque est présente dans toute la France métropolitaine sauf en Corse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_houque</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_houque</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de la houque réside dans les friches, les prairies fleuries, au bord des routes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_houque</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_houque</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
